--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1227472.004769424</v>
+        <v>-1230027.187497956</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>139.6581220938416</v>
       </c>
       <c r="Y2" t="n">
-        <v>331.9916838480436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,10 +826,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>23.53778113208455</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>11.16818915334145</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>222.2889071299327</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>7.994313256368514</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>52.92366116477035</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>307.0975031338185</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>37.85289400365743</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.2419515106227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>211.7088901800199</v>
       </c>
       <c r="G8" t="n">
-        <v>99.00641483895878</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>124.6940884171425</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>17.15847099708702</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462248</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>57.24347904696321</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.650786789956</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>12.7400764119402</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>74.5391715960898</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016461</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>106.9977768135381</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520957</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>147.7027769252548</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>129.2171928962052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>196.9206411790015</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>78.58522891595193</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.8592102470453</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.981188826526</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445519</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261736</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1292.833068744076</v>
+        <v>1544.306735920717</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1175.344218980305</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>1930.906575984839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1679.432908808198</v>
+        <v>1930.906575984839</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1400.236054745318</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971289</v>
+        <v>1110.818884708357</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2183.913435701915</v>
+        <v>1942.283086868344</v>
       </c>
       <c r="C5" t="n">
-        <v>1814.950918761504</v>
+        <v>1942.283086868344</v>
       </c>
       <c r="D5" t="n">
-        <v>1456.685220154753</v>
+        <v>1584.017388261593</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1198.229135663349</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>787.2432308737414</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>372.1707807187379</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>74.58718032750514</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2702.348685193545</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792695</v>
+        <v>2702.348685193545</v>
       </c>
       <c r="X5" t="n">
-        <v>2574.052767677727</v>
+        <v>2328.882926932466</v>
       </c>
       <c r="Y5" t="n">
-        <v>2183.913435701915</v>
+        <v>2328.882926932466</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1889.059301620152</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1667.292686189678</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1378.189819315322</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1378.189819315322</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>1088.772649278361</v>
       </c>
       <c r="X7" t="n">
-        <v>1424.011591242373</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.138951213862</v>
+        <v>2106.031998942028</v>
       </c>
       <c r="C8" t="n">
-        <v>1661.138951213862</v>
+        <v>1737.069482001617</v>
       </c>
       <c r="D8" t="n">
-        <v>1302.873252607111</v>
+        <v>1378.803783394866</v>
       </c>
       <c r="E8" t="n">
-        <v>917.0850000088669</v>
+        <v>993.0155307966218</v>
       </c>
       <c r="F8" t="n">
-        <v>506.0990952192594</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>2492.63183900615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213862</v>
+        <v>2492.63183900615</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>481.6572696514548</v>
+        <v>659.4316570185995</v>
       </c>
       <c r="C10" t="n">
-        <v>481.6572696514548</v>
+        <v>490.4954740906926</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>340.3788346783568</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>192.4657410959637</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>192.4657410959637</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1909.962759202546</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1718.276875029373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1496.510259598899</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1207.407392724542</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>952.7229045186552</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>663.3057344816946</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>663.3057344816946</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y10" t="n">
-        <v>663.3057344816946</v>
+        <v>659.4316570185995</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,34 +5057,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>2383.002557118212</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>2644.045655650152</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>2644.045655650152</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>3241.424143276704</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>3869.022106831311</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356204</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232847</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408915</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429812</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578611</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378162</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172275</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135314</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237297</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093767</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="14">
@@ -5276,7 +5276,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,10 +5285,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,19 +5352,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>248.3972582582387</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>106.6854271004367</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770305</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>634.3345878491236</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367879</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>336.3048548543948</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>336.3048548543948</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>169.1087555692747</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>169.1087555692747</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1936.428221820189</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1936.428221820189</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648818</v>
+        <v>1647.011051783228</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.7118147508</v>
+        <v>1419.021500885211</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072703</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6072,22 +6072,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.5811134804959</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
         <v>317.6151975578602</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1998.152806922919</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1709.077580267117</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1454.39309206123</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>954.2476448606602</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>785.3114619327533</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>635.1948225204176</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>487.2817289380245</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>340.3917814401141</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>173.195682154994</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>950.1865537761979</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>781.250370848291</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.1337314359553</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.1337314359553</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,13 +6780,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6847,10 +6847,10 @@
         <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345478</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384022</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6932,16 +6932,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,10 +6950,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
@@ -7026,16 +7026,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311324</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,25 +7254,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,13 +7600,13 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,19 +7828,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>230.0729785846274</v>
       </c>
       <c r="Y2" t="n">
-        <v>54.24625480800995</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22714,10 +22714,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>228.5998621917435</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>214.5414662356957</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22802,7 +22802,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>33.58261651655744</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22847,7 +22847,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>62.63359754465056</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462284</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7828069546814</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992881</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>6.726664722475732</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>179.186697575706</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>70.88187642683997</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.61478728573212</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>20.48480914828673</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>61.70948393027196</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.5618377758859765</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-3.197442310920451e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153448.6945369144</v>
+        <v>153448.6945369143</v>
       </c>
       <c r="C2" t="n">
-        <v>183612.6304874391</v>
+        <v>183612.6304874393</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
         <v>181607.9849302513</v>
@@ -26350,7 +26350,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194636</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,25 +26381,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>12820.12292715301</v>
       </c>
       <c r="C4" t="n">
-        <v>89338.26297207289</v>
+        <v>89338.26297207299</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,31 +26433,31 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>20987.7234099239</v>
+        <v>20987.72340992392</v>
       </c>
       <c r="M4" t="n">
         <v>20987.72340992396</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.72340992394</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="O4" t="n">
+        <v>20987.72340992392</v>
+      </c>
+      <c r="P4" t="n">
         <v>20987.72340992391</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20987.7234099239</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1296050.114679225</v>
+        <v>-1296397.733609031</v>
       </c>
       <c r="C6" t="n">
-        <v>-13659.57304602706</v>
+        <v>-13672.03713193837</v>
       </c>
       <c r="D6" t="n">
-        <v>-15383.44126011117</v>
+        <v>-15383.4412601112</v>
       </c>
       <c r="E6" t="n">
-        <v>-257923.8708478414</v>
+        <v>-257958.608773277</v>
       </c>
       <c r="F6" t="n">
-        <v>67488.59095951378</v>
+        <v>67453.85303407803</v>
       </c>
       <c r="G6" t="n">
-        <v>67488.59095951387</v>
+        <v>67453.85303407814</v>
       </c>
       <c r="H6" t="n">
-        <v>67488.59095951357</v>
+        <v>67453.85303407809</v>
       </c>
       <c r="I6" t="n">
-        <v>67488.59095951395</v>
+        <v>67453.85303407806</v>
       </c>
       <c r="J6" t="n">
-        <v>-150042.6114377638</v>
+        <v>-150077.3493631994</v>
       </c>
       <c r="K6" t="n">
-        <v>67488.59095951375</v>
+        <v>67453.85303407809</v>
       </c>
       <c r="L6" t="n">
-        <v>41154.84096199248</v>
+        <v>41154.84096199242</v>
       </c>
       <c r="M6" t="n">
-        <v>-24472.4689798875</v>
+        <v>-24472.46897988736</v>
       </c>
       <c r="N6" t="n">
-        <v>60582.55895562423</v>
+        <v>60582.55895562429</v>
       </c>
       <c r="O6" t="n">
-        <v>60582.55895562441</v>
+        <v>60582.55895562432</v>
       </c>
       <c r="P6" t="n">
-        <v>60582.55895562435</v>
+        <v>60582.55895562429</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>159.6414629423291</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>274.8285973053646</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>151.9161313277845</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.34270184147212</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>195.1671555616915</v>
       </c>
       <c r="G8" t="n">
-        <v>311.9153108144947</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>41.33171984188574</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>71.77368167296032</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>163.5723821283055</v>
+        <v>401.521336481369</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>608.2694430035901</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>216.0947523943934</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,28 +33974,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>342.8454457931495</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394657</v>
+        <v>263.67989750701</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>77.54037261451923</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37622,28 +37622,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>205.0040068187905</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
